--- a/automate/12.4/censuspopdata.xlsx
+++ b/automate/12.4/censuspopdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>CensusTract</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>San Francisco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -590,6 +598,76 @@
       </c>
       <c r="D7">
         <v>5164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>7565</v>
       </c>
     </row>
   </sheetData>
